--- a/Situation_Barrage/Détail_barrage.xlsx
+++ b/Situation_Barrage/Détail_barrage.xlsx
@@ -446,22 +446,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>26/10/23-RESERVES (Mm3)-</t>
+          <t>27/10/23-RESERVES (Mm3)-</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>26/10/23-TAUX DE REMPLISSAGE (%)-</t>
+          <t>27/10/23-TAUX DE REMPLISSAGE (%)-</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>26/10/22-RESERVES (Mm3)-</t>
+          <t>27/10/22-RESERVES (Mm3)-</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>26/10/22-TAUX DE REMPLISSAGE (%)-</t>
+          <t>27/10/22-TAUX DE REMPLISSAGE (%)-</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -517,10 +517,10 @@
         <v>57.2</v>
       </c>
       <c r="E2" t="n">
-        <v>300.5</v>
+        <v>299.8</v>
       </c>
       <c r="F2" t="n">
-        <v>44.7</v>
+        <v>44.6</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -565,13 +565,13 @@
         <v>18.2</v>
       </c>
       <c r="D3" t="n">
-        <v>82.8</v>
+        <v>82.7</v>
       </c>
       <c r="E3" t="n">
         <v>20.4</v>
       </c>
       <c r="F3" t="n">
-        <v>92.7</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -613,10 +613,10 @@
         <v>29.1</v>
       </c>
       <c r="C4" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="D4" t="n">
-        <v>28.8</v>
+        <v>29.2</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
@@ -664,10 +664,10 @@
         <v>300</v>
       </c>
       <c r="C5" t="n">
-        <v>46</v>
+        <v>46.1</v>
       </c>
       <c r="D5" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="E5" t="n">
         <v>36.9</v>
@@ -715,16 +715,16 @@
         <v>4.21</v>
       </c>
       <c r="C6" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="D6" t="n">
-        <v>45.3</v>
+        <v>45.1</v>
       </c>
       <c r="E6" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>48.8</v>
+        <v>48.5</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         <v>31.5</v>
       </c>
       <c r="D8" t="n">
-        <v>80.90000000000001</v>
+        <v>80.8</v>
       </c>
       <c r="E8" t="n">
         <v>31.5</v>
@@ -871,13 +871,13 @@
         <v>2.8</v>
       </c>
       <c r="D9" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="E9" t="n">
         <v>3.3</v>
       </c>
       <c r="F9" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>80</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="E10" t="n">
         <v>10.8</v>
@@ -970,16 +970,16 @@
         <v>121.65</v>
       </c>
       <c r="C11" t="n">
-        <v>101.88</v>
+        <v>101.8</v>
       </c>
       <c r="D11" t="n">
         <v>83.7</v>
       </c>
       <c r="E11" t="n">
-        <v>96.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="F11" t="n">
-        <v>79.7</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1126,13 +1126,13 @@
         <v>0.6</v>
       </c>
       <c r="D14" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E14" t="n">
         <v>0.6</v>
       </c>
       <c r="F14" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1174,16 +1174,16 @@
         <v>12.6</v>
       </c>
       <c r="C15" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="D15" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="F15" t="n">
-        <v>39.2</v>
+        <v>39.1</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1276,16 +1276,16 @@
         <v>239.6</v>
       </c>
       <c r="C17" t="n">
-        <v>84.40000000000001</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>35.3</v>
+        <v>34.8</v>
       </c>
       <c r="E17" t="n">
-        <v>63.8</v>
+        <v>63.6</v>
       </c>
       <c r="F17" t="n">
-        <v>26.6</v>
+        <v>26.5</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1327,16 +1327,16 @@
         <v>8.1</v>
       </c>
       <c r="C18" t="n">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="D18" t="n">
-        <v>70.5</v>
+        <v>79</v>
       </c>
       <c r="E18" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="F18" t="n">
-        <v>57.9</v>
+        <v>57.3</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>50.5</v>
       </c>
       <c r="C19" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="D19" t="n">
         <v>18.7</v>
@@ -1432,13 +1432,13 @@
         <v>14.9</v>
       </c>
       <c r="D20" t="n">
-        <v>44.2</v>
+        <v>44.1</v>
       </c>
       <c r="E20" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="F20" t="n">
-        <v>61.7</v>
+        <v>61.6</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1486,10 +1486,10 @@
         <v>15.8</v>
       </c>
       <c r="E21" t="n">
-        <v>264.4</v>
+        <v>262.6</v>
       </c>
       <c r="F21" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1531,16 +1531,16 @@
         <v>63.8</v>
       </c>
       <c r="C22" t="n">
-        <v>59.4</v>
+        <v>59.7</v>
       </c>
       <c r="D22" t="n">
-        <v>93.09999999999999</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>55.3</v>
+        <v>55.6</v>
       </c>
       <c r="F22" t="n">
-        <v>86.8</v>
+        <v>87.2</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>84.90000000000001</v>
       </c>
       <c r="F23" t="n">
-        <v>55.6</v>
+        <v>55.5</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>22.5</v>
       </c>
       <c r="D24" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="E24" t="n">
         <v>22.7</v>
@@ -1684,16 +1684,16 @@
         <v>44.76</v>
       </c>
       <c r="C25" t="n">
-        <v>34.03</v>
+        <v>33.98</v>
       </c>
       <c r="D25" t="n">
-        <v>76</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="E25" t="n">
         <v>33.9</v>
       </c>
       <c r="F25" t="n">
-        <v>75.8</v>
+        <v>75.7</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>41.8</v>
       </c>
       <c r="E26" t="n">
-        <v>130.5</v>
+        <v>130.4</v>
       </c>
       <c r="F26" t="n">
         <v>46.3</v>
@@ -1792,10 +1792,10 @@
         <v>44.4</v>
       </c>
       <c r="E27" t="n">
-        <v>1486.5</v>
+        <v>1483.5</v>
       </c>
       <c r="F27" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1837,16 +1837,16 @@
         <v>40.1</v>
       </c>
       <c r="C28" t="n">
-        <v>34</v>
+        <v>33.2</v>
       </c>
       <c r="D28" t="n">
-        <v>84.90000000000001</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>34.3</v>
+        <v>35</v>
       </c>
       <c r="F28" t="n">
-        <v>85.5</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2043,16 +2043,16 @@
         <v>974.8</v>
       </c>
       <c r="C32" t="n">
-        <v>147.3</v>
+        <v>147.8</v>
       </c>
       <c r="D32" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="E32" t="n">
-        <v>267.9</v>
+        <v>267.1</v>
       </c>
       <c r="F32" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2099,13 +2099,13 @@
         <v>20.1</v>
       </c>
       <c r="D33" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="E33" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="F33" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2153,10 +2153,10 @@
         <v>26.1</v>
       </c>
       <c r="E34" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="F34" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2198,13 +2198,13 @@
         <v>1215.5</v>
       </c>
       <c r="C35" t="n">
-        <v>95.5</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="D35" t="n">
         <v>7.9</v>
       </c>
       <c r="E35" t="n">
-        <v>98.3</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="F35" t="n">
         <v>8.1</v>
@@ -2249,10 +2249,10 @@
         <v>236</v>
       </c>
       <c r="C36" t="n">
-        <v>32.8</v>
+        <v>33</v>
       </c>
       <c r="D36" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="E36" t="n">
         <v>30.5</v>
@@ -2303,13 +2303,13 @@
         <v>2.2</v>
       </c>
       <c r="D37" t="n">
-        <v>90</v>
+        <v>88.5</v>
       </c>
       <c r="E37" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>64.5</v>
+        <v>40.2</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2351,16 +2351,16 @@
         <v>142.8</v>
       </c>
       <c r="C38" t="n">
-        <v>48.4</v>
+        <v>48.6</v>
       </c>
       <c r="D38" t="n">
-        <v>33.9</v>
+        <v>34</v>
       </c>
       <c r="E38" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="F38" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2405,13 +2405,13 @@
         <v>1.1</v>
       </c>
       <c r="D39" t="n">
-        <v>83.5</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="E39" t="n">
         <v>0.9</v>
       </c>
       <c r="F39" t="n">
-        <v>69</v>
+        <v>67.3</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2453,13 +2453,13 @@
         <v>668.2</v>
       </c>
       <c r="C40" t="n">
-        <v>63.7</v>
+        <v>64.2</v>
       </c>
       <c r="D40" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="E40" t="n">
-        <v>64.5</v>
+        <v>65</v>
       </c>
       <c r="F40" t="n">
         <v>9.699999999999999</v>
@@ -2504,16 +2504,16 @@
         <v>14.3</v>
       </c>
       <c r="C41" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="D41" t="n">
-        <v>67.40000000000001</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>10.2</v>
+        <v>10</v>
       </c>
       <c r="F41" t="n">
-        <v>71</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2555,13 +2555,13 @@
         <v>2657</v>
       </c>
       <c r="C42" t="n">
-        <v>59.9</v>
+        <v>60.4</v>
       </c>
       <c r="D42" t="n">
         <v>2.3</v>
       </c>
       <c r="E42" t="n">
-        <v>125.2</v>
+        <v>125.4</v>
       </c>
       <c r="F42" t="n">
         <v>4.7</v>
@@ -2606,16 +2606,16 @@
         <v>9.4</v>
       </c>
       <c r="C43" t="n">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="D43" t="n">
-        <v>49.2</v>
+        <v>38.4</v>
       </c>
       <c r="E43" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="F43" t="n">
-        <v>25.1</v>
+        <v>9.5</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2657,16 +2657,16 @@
         <v>6.8</v>
       </c>
       <c r="C44" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="D44" t="n">
-        <v>42.4</v>
+        <v>47.8</v>
       </c>
       <c r="E44" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="F44" t="n">
-        <v>50.1</v>
+        <v>55.2</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2711,13 +2711,13 @@
         <v>1.1</v>
       </c>
       <c r="D45" t="n">
-        <v>98.7</v>
+        <v>98.3</v>
       </c>
       <c r="E45" t="n">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>89.5</v>
+        <v>88.7</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2810,10 +2810,10 @@
         <v>69.34</v>
       </c>
       <c r="C47" t="n">
-        <v>35.62</v>
+        <v>35.94</v>
       </c>
       <c r="D47" t="n">
-        <v>51.4</v>
+        <v>51.8</v>
       </c>
       <c r="E47" t="n">
         <v>21.3</v>
@@ -2861,10 +2861,10 @@
         <v>24.8</v>
       </c>
       <c r="C48" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="D48" t="n">
-        <v>73</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="E48" t="n">
         <v>15.3</v>
@@ -2912,16 +2912,16 @@
         <v>53.3</v>
       </c>
       <c r="C49" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="D49" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="E49" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="F49" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -3019,13 +3019,13 @@
         <v>0.1</v>
       </c>
       <c r="D51" t="n">
-        <v>61.8</v>
+        <v>63.3</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>4</v>
+        <v>5.4</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
         <v>11.9</v>
       </c>
       <c r="F52" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -3118,16 +3118,16 @@
         <v>89</v>
       </c>
       <c r="C53" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="D53" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="E53" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="F53" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>198.4</v>
       </c>
       <c r="C54" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="D54" t="n">
         <v>5.7</v>
@@ -3223,13 +3223,13 @@
         <v>3.1</v>
       </c>
       <c r="D55" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="E55" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F55" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3277,10 +3277,10 @@
         <v>36.4</v>
       </c>
       <c r="E56" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="F56" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3322,10 +3322,10 @@
         <v>4.7</v>
       </c>
       <c r="C57" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="D57" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="E57" t="n">
         <v>2.6</v>
@@ -3373,13 +3373,13 @@
         <v>298.9</v>
       </c>
       <c r="C58" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="D58" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="E58" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="F58" t="n">
         <v>12.9</v>
@@ -3424,7 +3424,7 @@
         <v>445.3</v>
       </c>
       <c r="C59" t="n">
-        <v>62.8</v>
+        <v>62.7</v>
       </c>
       <c r="D59" t="n">
         <v>14.1</v>
@@ -3475,16 +3475,16 @@
         <v>280.2</v>
       </c>
       <c r="C60" t="n">
-        <v>91.8</v>
+        <v>91.7</v>
       </c>
       <c r="D60" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="E60" t="n">
-        <v>74.8</v>
+        <v>73.8</v>
       </c>
       <c r="F60" t="n">
-        <v>26.7</v>
+        <v>26.3</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3526,13 +3526,13 @@
         <v>312.8</v>
       </c>
       <c r="C61" t="n">
-        <v>87.90000000000001</v>
+        <v>87.8</v>
       </c>
       <c r="D61" t="n">
         <v>28.1</v>
       </c>
       <c r="E61" t="n">
-        <v>70.40000000000001</v>
+        <v>70.3</v>
       </c>
       <c r="F61" t="n">
         <v>22.5</v>

--- a/Situation_Barrage/Détail_barrage.xlsx
+++ b/Situation_Barrage/Détail_barrage.xlsx
@@ -446,22 +446,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>27/10/23-RESERVES (Mm3)-</t>
+          <t>26/10/23-RESERVES (Mm3)-</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>27/10/23-TAUX DE REMPLISSAGE (%)-</t>
+          <t>26/10/23-TAUX DE REMPLISSAGE (%)-</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27/10/22-RESERVES (Mm3)-</t>
+          <t>26/10/22-RESERVES (Mm3)-</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>27/10/22-TAUX DE REMPLISSAGE (%)-</t>
+          <t>26/10/22-TAUX DE REMPLISSAGE (%)-</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -517,10 +517,10 @@
         <v>57.2</v>
       </c>
       <c r="E2" t="n">
-        <v>299.8</v>
+        <v>300.5</v>
       </c>
       <c r="F2" t="n">
-        <v>44.6</v>
+        <v>44.7</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -565,13 +565,13 @@
         <v>18.2</v>
       </c>
       <c r="D3" t="n">
-        <v>82.7</v>
+        <v>82.8</v>
       </c>
       <c r="E3" t="n">
         <v>20.4</v>
       </c>
       <c r="F3" t="n">
-        <v>92.59999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -613,10 +613,10 @@
         <v>29.1</v>
       </c>
       <c r="C4" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="D4" t="n">
-        <v>29.2</v>
+        <v>28.8</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
@@ -664,10 +664,10 @@
         <v>300</v>
       </c>
       <c r="C5" t="n">
-        <v>46.1</v>
+        <v>46</v>
       </c>
       <c r="D5" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="E5" t="n">
         <v>36.9</v>
@@ -715,16 +715,16 @@
         <v>4.21</v>
       </c>
       <c r="C6" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="D6" t="n">
-        <v>45.1</v>
+        <v>45.3</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="F6" t="n">
-        <v>48.5</v>
+        <v>48.8</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         <v>31.5</v>
       </c>
       <c r="D8" t="n">
-        <v>80.8</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="E8" t="n">
         <v>31.5</v>
@@ -871,13 +871,13 @@
         <v>2.8</v>
       </c>
       <c r="D9" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="E9" t="n">
         <v>3.3</v>
       </c>
       <c r="F9" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>79.90000000000001</v>
+        <v>80</v>
       </c>
       <c r="E10" t="n">
         <v>10.8</v>
@@ -970,16 +970,16 @@
         <v>121.65</v>
       </c>
       <c r="C11" t="n">
-        <v>101.8</v>
+        <v>101.88</v>
       </c>
       <c r="D11" t="n">
         <v>83.7</v>
       </c>
       <c r="E11" t="n">
-        <v>96.8</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>79.59999999999999</v>
+        <v>79.7</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1126,13 +1126,13 @@
         <v>0.6</v>
       </c>
       <c r="D14" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="E14" t="n">
         <v>0.6</v>
       </c>
       <c r="F14" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1174,16 +1174,16 @@
         <v>12.6</v>
       </c>
       <c r="C15" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="D15" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="E15" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>39.1</v>
+        <v>39.2</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1276,16 +1276,16 @@
         <v>239.6</v>
       </c>
       <c r="C17" t="n">
-        <v>83.40000000000001</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>34.8</v>
+        <v>35.3</v>
       </c>
       <c r="E17" t="n">
-        <v>63.6</v>
+        <v>63.8</v>
       </c>
       <c r="F17" t="n">
-        <v>26.5</v>
+        <v>26.6</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1327,16 +1327,16 @@
         <v>8.1</v>
       </c>
       <c r="C18" t="n">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="D18" t="n">
-        <v>79</v>
+        <v>70.5</v>
       </c>
       <c r="E18" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="F18" t="n">
-        <v>57.3</v>
+        <v>57.9</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>50.5</v>
       </c>
       <c r="C19" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="D19" t="n">
         <v>18.7</v>
@@ -1432,13 +1432,13 @@
         <v>14.9</v>
       </c>
       <c r="D20" t="n">
-        <v>44.1</v>
+        <v>44.2</v>
       </c>
       <c r="E20" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="F20" t="n">
-        <v>61.6</v>
+        <v>61.7</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1486,10 +1486,10 @@
         <v>15.8</v>
       </c>
       <c r="E21" t="n">
-        <v>262.6</v>
+        <v>264.4</v>
       </c>
       <c r="F21" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1531,16 +1531,16 @@
         <v>63.8</v>
       </c>
       <c r="C22" t="n">
-        <v>59.7</v>
+        <v>59.4</v>
       </c>
       <c r="D22" t="n">
-        <v>93.59999999999999</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>55.6</v>
+        <v>55.3</v>
       </c>
       <c r="F22" t="n">
-        <v>87.2</v>
+        <v>86.8</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>84.90000000000001</v>
       </c>
       <c r="F23" t="n">
-        <v>55.5</v>
+        <v>55.6</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>22.5</v>
       </c>
       <c r="D24" t="n">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="E24" t="n">
         <v>22.7</v>
@@ -1684,16 +1684,16 @@
         <v>44.76</v>
       </c>
       <c r="C25" t="n">
-        <v>33.98</v>
+        <v>34.03</v>
       </c>
       <c r="D25" t="n">
-        <v>75.90000000000001</v>
+        <v>76</v>
       </c>
       <c r="E25" t="n">
         <v>33.9</v>
       </c>
       <c r="F25" t="n">
-        <v>75.7</v>
+        <v>75.8</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>41.8</v>
       </c>
       <c r="E26" t="n">
-        <v>130.4</v>
+        <v>130.5</v>
       </c>
       <c r="F26" t="n">
         <v>46.3</v>
@@ -1792,10 +1792,10 @@
         <v>44.4</v>
       </c>
       <c r="E27" t="n">
-        <v>1483.5</v>
+        <v>1486.5</v>
       </c>
       <c r="F27" t="n">
-        <v>42.1</v>
+        <v>42.2</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1837,16 +1837,16 @@
         <v>40.1</v>
       </c>
       <c r="C28" t="n">
-        <v>33.2</v>
+        <v>34</v>
       </c>
       <c r="D28" t="n">
-        <v>82.90000000000001</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>35</v>
+        <v>34.3</v>
       </c>
       <c r="F28" t="n">
-        <v>87.40000000000001</v>
+        <v>85.5</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2043,16 +2043,16 @@
         <v>974.8</v>
       </c>
       <c r="C32" t="n">
-        <v>147.8</v>
+        <v>147.3</v>
       </c>
       <c r="D32" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="E32" t="n">
-        <v>267.1</v>
+        <v>267.9</v>
       </c>
       <c r="F32" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2099,13 +2099,13 @@
         <v>20.1</v>
       </c>
       <c r="D33" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="E33" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="F33" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2153,10 +2153,10 @@
         <v>26.1</v>
       </c>
       <c r="E34" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="F34" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2198,13 +2198,13 @@
         <v>1215.5</v>
       </c>
       <c r="C35" t="n">
-        <v>95.90000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="D35" t="n">
         <v>7.9</v>
       </c>
       <c r="E35" t="n">
-        <v>98.40000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="F35" t="n">
         <v>8.1</v>
@@ -2249,10 +2249,10 @@
         <v>236</v>
       </c>
       <c r="C36" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="D36" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="E36" t="n">
         <v>30.5</v>
@@ -2303,13 +2303,13 @@
         <v>2.2</v>
       </c>
       <c r="D37" t="n">
-        <v>88.5</v>
+        <v>90</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="F37" t="n">
-        <v>40.2</v>
+        <v>64.5</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2351,16 +2351,16 @@
         <v>142.8</v>
       </c>
       <c r="C38" t="n">
-        <v>48.6</v>
+        <v>48.4</v>
       </c>
       <c r="D38" t="n">
-        <v>34</v>
+        <v>33.9</v>
       </c>
       <c r="E38" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="F38" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2405,13 +2405,13 @@
         <v>1.1</v>
       </c>
       <c r="D39" t="n">
-        <v>82.59999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="E39" t="n">
         <v>0.9</v>
       </c>
       <c r="F39" t="n">
-        <v>67.3</v>
+        <v>69</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2453,13 +2453,13 @@
         <v>668.2</v>
       </c>
       <c r="C40" t="n">
-        <v>64.2</v>
+        <v>63.7</v>
       </c>
       <c r="D40" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="E40" t="n">
-        <v>65</v>
+        <v>64.5</v>
       </c>
       <c r="F40" t="n">
         <v>9.699999999999999</v>
@@ -2504,16 +2504,16 @@
         <v>14.3</v>
       </c>
       <c r="C41" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="D41" t="n">
-        <v>65.40000000000001</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>10</v>
+        <v>10.2</v>
       </c>
       <c r="F41" t="n">
-        <v>69.59999999999999</v>
+        <v>71</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2555,13 +2555,13 @@
         <v>2657</v>
       </c>
       <c r="C42" t="n">
-        <v>60.4</v>
+        <v>59.9</v>
       </c>
       <c r="D42" t="n">
         <v>2.3</v>
       </c>
       <c r="E42" t="n">
-        <v>125.4</v>
+        <v>125.2</v>
       </c>
       <c r="F42" t="n">
         <v>4.7</v>
@@ -2606,16 +2606,16 @@
         <v>9.4</v>
       </c>
       <c r="C43" t="n">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="D43" t="n">
-        <v>38.4</v>
+        <v>49.2</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="F43" t="n">
-        <v>9.5</v>
+        <v>25.1</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2657,16 +2657,16 @@
         <v>6.8</v>
       </c>
       <c r="C44" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="D44" t="n">
-        <v>47.8</v>
+        <v>42.4</v>
       </c>
       <c r="E44" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="F44" t="n">
-        <v>55.2</v>
+        <v>50.1</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2711,13 +2711,13 @@
         <v>1.1</v>
       </c>
       <c r="D45" t="n">
-        <v>98.3</v>
+        <v>98.7</v>
       </c>
       <c r="E45" t="n">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>88.7</v>
+        <v>89.5</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2810,10 +2810,10 @@
         <v>69.34</v>
       </c>
       <c r="C47" t="n">
-        <v>35.94</v>
+        <v>35.62</v>
       </c>
       <c r="D47" t="n">
-        <v>51.8</v>
+        <v>51.4</v>
       </c>
       <c r="E47" t="n">
         <v>21.3</v>
@@ -2861,10 +2861,10 @@
         <v>24.8</v>
       </c>
       <c r="C48" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="D48" t="n">
-        <v>73.40000000000001</v>
+        <v>73</v>
       </c>
       <c r="E48" t="n">
         <v>15.3</v>
@@ -2912,16 +2912,16 @@
         <v>53.3</v>
       </c>
       <c r="C49" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="D49" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="E49" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="F49" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -3019,13 +3019,13 @@
         <v>0.1</v>
       </c>
       <c r="D51" t="n">
-        <v>63.3</v>
+        <v>61.8</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>5.4</v>
+        <v>4</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
         <v>11.9</v>
       </c>
       <c r="F52" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -3118,16 +3118,16 @@
         <v>89</v>
       </c>
       <c r="C53" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="D53" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="E53" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="F53" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>198.4</v>
       </c>
       <c r="C54" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="D54" t="n">
         <v>5.7</v>
@@ -3223,13 +3223,13 @@
         <v>3.1</v>
       </c>
       <c r="D55" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="E55" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F55" t="n">
-        <v>24.6</v>
+        <v>24.4</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3277,10 +3277,10 @@
         <v>36.4</v>
       </c>
       <c r="E56" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="F56" t="n">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3322,10 +3322,10 @@
         <v>4.7</v>
       </c>
       <c r="C57" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="D57" t="n">
-        <v>37.5</v>
+        <v>37.6</v>
       </c>
       <c r="E57" t="n">
         <v>2.6</v>
@@ -3373,13 +3373,13 @@
         <v>298.9</v>
       </c>
       <c r="C58" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="D58" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="E58" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="F58" t="n">
         <v>12.9</v>
@@ -3424,7 +3424,7 @@
         <v>445.3</v>
       </c>
       <c r="C59" t="n">
-        <v>62.7</v>
+        <v>62.8</v>
       </c>
       <c r="D59" t="n">
         <v>14.1</v>
@@ -3475,16 +3475,16 @@
         <v>280.2</v>
       </c>
       <c r="C60" t="n">
-        <v>91.7</v>
+        <v>91.8</v>
       </c>
       <c r="D60" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="E60" t="n">
-        <v>73.8</v>
+        <v>74.8</v>
       </c>
       <c r="F60" t="n">
-        <v>26.3</v>
+        <v>26.7</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3526,13 +3526,13 @@
         <v>312.8</v>
       </c>
       <c r="C61" t="n">
-        <v>87.8</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="D61" t="n">
         <v>28.1</v>
       </c>
       <c r="E61" t="n">
-        <v>70.3</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="F61" t="n">
         <v>22.5</v>

--- a/Situation_Barrage/Détail_barrage.xlsx
+++ b/Situation_Barrage/Détail_barrage.xlsx
@@ -446,22 +446,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>26/10/23-RESERVES (Mm3)-</t>
+          <t>31/10/23-RESERVES (Mm3)-</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>26/10/23-TAUX DE REMPLISSAGE (%)-</t>
+          <t>31/10/23-TAUX DE REMPLISSAGE (%)-</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>26/10/22-RESERVES (Mm3)-</t>
+          <t>31/10/22-RESERVES (Mm3)-</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>26/10/22-TAUX DE REMPLISSAGE (%)-</t>
+          <t>31/10/22-TAUX DE REMPLISSAGE (%)-</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -517,10 +517,10 @@
         <v>57.2</v>
       </c>
       <c r="E2" t="n">
-        <v>300.5</v>
+        <v>297.9</v>
       </c>
       <c r="F2" t="n">
-        <v>44.7</v>
+        <v>44.3</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -562,16 +562,16 @@
         <v>22</v>
       </c>
       <c r="C3" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="D3" t="n">
-        <v>82.8</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="E3" t="n">
         <v>20.4</v>
       </c>
       <c r="F3" t="n">
-        <v>92.7</v>
+        <v>92.5</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -613,16 +613,16 @@
         <v>29.1</v>
       </c>
       <c r="C4" t="n">
-        <v>8.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>28.8</v>
+        <v>29.8</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="F4" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -664,13 +664,13 @@
         <v>300</v>
       </c>
       <c r="C5" t="n">
-        <v>46</v>
+        <v>46.1</v>
       </c>
       <c r="D5" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="E5" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="F5" t="n">
         <v>12.3</v>
@@ -715,16 +715,16 @@
         <v>4.21</v>
       </c>
       <c r="C6" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="D6" t="n">
-        <v>45.3</v>
+        <v>45</v>
       </c>
       <c r="E6" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>48.8</v>
+        <v>47.5</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -769,13 +769,13 @@
         <v>12.2</v>
       </c>
       <c r="D7" t="n">
-        <v>52</v>
+        <v>51.9</v>
       </c>
       <c r="E7" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="F7" t="n">
-        <v>59.9</v>
+        <v>59.3</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -817,16 +817,16 @@
         <v>39</v>
       </c>
       <c r="C8" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="D8" t="n">
-        <v>80.90000000000001</v>
+        <v>80.7</v>
       </c>
       <c r="E8" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="F8" t="n">
-        <v>80.8</v>
+        <v>80.7</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -868,16 +868,16 @@
         <v>11.8</v>
       </c>
       <c r="C9" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="D9" t="n">
-        <v>23.5</v>
+        <v>23</v>
       </c>
       <c r="E9" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="F9" t="n">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -919,16 +919,16 @@
         <v>12.2</v>
       </c>
       <c r="C10" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>80</v>
+        <v>79.5</v>
       </c>
       <c r="E10" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="F10" t="n">
-        <v>87.90000000000001</v>
+        <v>87.8</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -970,16 +970,16 @@
         <v>121.65</v>
       </c>
       <c r="C11" t="n">
-        <v>101.88</v>
+        <v>101.77</v>
       </c>
       <c r="D11" t="n">
         <v>83.7</v>
       </c>
       <c r="E11" t="n">
-        <v>96.90000000000001</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>79.7</v>
+        <v>79.2</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1021,13 +1021,13 @@
         <v>392.3</v>
       </c>
       <c r="C12" t="n">
-        <v>48</v>
+        <v>47.9</v>
       </c>
       <c r="D12" t="n">
         <v>12.2</v>
       </c>
       <c r="E12" t="n">
-        <v>39.4</v>
+        <v>39.3</v>
       </c>
       <c r="F12" t="n">
         <v>10</v>
@@ -1072,7 +1072,7 @@
         <v>480.3</v>
       </c>
       <c r="C13" t="n">
-        <v>83.09999999999999</v>
+        <v>83</v>
       </c>
       <c r="D13" t="n">
         <v>17.3</v>
@@ -1126,13 +1126,13 @@
         <v>0.6</v>
       </c>
       <c r="D14" t="n">
-        <v>12.3</v>
+        <v>11.9</v>
       </c>
       <c r="E14" t="n">
         <v>0.6</v>
       </c>
       <c r="F14" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1174,16 +1174,16 @@
         <v>12.6</v>
       </c>
       <c r="C15" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="D15" t="n">
-        <v>17.8</v>
+        <v>17.4</v>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="F15" t="n">
-        <v>39.2</v>
+        <v>38.6</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1276,16 +1276,16 @@
         <v>239.6</v>
       </c>
       <c r="C17" t="n">
-        <v>84.40000000000001</v>
+        <v>79.8</v>
       </c>
       <c r="D17" t="n">
-        <v>35.3</v>
+        <v>33.3</v>
       </c>
       <c r="E17" t="n">
-        <v>63.8</v>
+        <v>61.7</v>
       </c>
       <c r="F17" t="n">
-        <v>26.6</v>
+        <v>25.8</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1327,16 +1327,16 @@
         <v>8.1</v>
       </c>
       <c r="C18" t="n">
-        <v>5.7</v>
+        <v>4.9</v>
       </c>
       <c r="D18" t="n">
-        <v>70.5</v>
+        <v>60.3</v>
       </c>
       <c r="E18" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="F18" t="n">
-        <v>57.9</v>
+        <v>54.7</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1378,16 +1378,16 @@
         <v>50.5</v>
       </c>
       <c r="C19" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="D19" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="E19" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1429,16 +1429,16 @@
         <v>33.8</v>
       </c>
       <c r="C20" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="D20" t="n">
-        <v>44.2</v>
+        <v>43.8</v>
       </c>
       <c r="E20" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="F20" t="n">
-        <v>61.7</v>
+        <v>61.2</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1480,16 +1480,16 @@
         <v>1129.6</v>
       </c>
       <c r="C21" t="n">
-        <v>178.3</v>
+        <v>178.1</v>
       </c>
       <c r="D21" t="n">
         <v>15.8</v>
       </c>
       <c r="E21" t="n">
-        <v>264.4</v>
+        <v>251.4</v>
       </c>
       <c r="F21" t="n">
-        <v>23.4</v>
+        <v>22.3</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1531,16 +1531,16 @@
         <v>63.8</v>
       </c>
       <c r="C22" t="n">
-        <v>59.4</v>
+        <v>58.2</v>
       </c>
       <c r="D22" t="n">
-        <v>93.09999999999999</v>
+        <v>91.3</v>
       </c>
       <c r="E22" t="n">
-        <v>55.3</v>
+        <v>56</v>
       </c>
       <c r="F22" t="n">
-        <v>86.8</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1582,16 +1582,16 @@
         <v>152.8</v>
       </c>
       <c r="C23" t="n">
-        <v>72.2</v>
+        <v>72</v>
       </c>
       <c r="D23" t="n">
-        <v>47.2</v>
+        <v>47.1</v>
       </c>
       <c r="E23" t="n">
-        <v>84.90000000000001</v>
+        <v>84.7</v>
       </c>
       <c r="F23" t="n">
-        <v>55.6</v>
+        <v>55.4</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1633,16 +1633,16 @@
         <v>67.40000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="D24" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="E24" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="F24" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1684,16 +1684,16 @@
         <v>44.76</v>
       </c>
       <c r="C25" t="n">
-        <v>34.03</v>
+        <v>33.82</v>
       </c>
       <c r="D25" t="n">
-        <v>76</v>
+        <v>75.5</v>
       </c>
       <c r="E25" t="n">
-        <v>33.9</v>
+        <v>33.6</v>
       </c>
       <c r="F25" t="n">
-        <v>75.8</v>
+        <v>75</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1735,16 +1735,16 @@
         <v>281.7</v>
       </c>
       <c r="C26" t="n">
-        <v>117.8</v>
+        <v>117.7</v>
       </c>
       <c r="D26" t="n">
         <v>41.8</v>
       </c>
       <c r="E26" t="n">
-        <v>130.5</v>
+        <v>130.1</v>
       </c>
       <c r="F26" t="n">
-        <v>46.3</v>
+        <v>46.2</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1786,16 +1786,16 @@
         <v>3522.3</v>
       </c>
       <c r="C27" t="n">
-        <v>1562.2</v>
+        <v>1553.9</v>
       </c>
       <c r="D27" t="n">
-        <v>44.4</v>
+        <v>44.1</v>
       </c>
       <c r="E27" t="n">
-        <v>1486.5</v>
+        <v>1471.8</v>
       </c>
       <c r="F27" t="n">
-        <v>42.2</v>
+        <v>41.8</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1837,16 +1837,16 @@
         <v>40.1</v>
       </c>
       <c r="C28" t="n">
-        <v>34</v>
+        <v>29.9</v>
       </c>
       <c r="D28" t="n">
-        <v>84.90000000000001</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="E28" t="n">
-        <v>34.3</v>
+        <v>39.3</v>
       </c>
       <c r="F28" t="n">
-        <v>85.5</v>
+        <v>98</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1888,16 +1888,16 @@
         <v>216.4</v>
       </c>
       <c r="C29" t="n">
-        <v>62.4</v>
+        <v>62.3</v>
       </c>
       <c r="D29" t="n">
         <v>28.8</v>
       </c>
       <c r="E29" t="n">
-        <v>50.9</v>
+        <v>55.2</v>
       </c>
       <c r="F29" t="n">
-        <v>23.5</v>
+        <v>25.5</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>1.3</v>
       </c>
       <c r="F31" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2043,16 +2043,16 @@
         <v>974.8</v>
       </c>
       <c r="C32" t="n">
-        <v>147.3</v>
+        <v>149.8</v>
       </c>
       <c r="D32" t="n">
-        <v>15.1</v>
+        <v>15.4</v>
       </c>
       <c r="E32" t="n">
-        <v>267.9</v>
+        <v>263.7</v>
       </c>
       <c r="F32" t="n">
-        <v>27.5</v>
+        <v>27.1</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2096,16 +2096,16 @@
         <v>56.1</v>
       </c>
       <c r="C33" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="D33" t="n">
-        <v>35.9</v>
+        <v>35.7</v>
       </c>
       <c r="E33" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="F33" t="n">
-        <v>36.5</v>
+        <v>36.3</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2150,13 +2150,13 @@
         <v>9.699999999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="E34" t="n">
-        <v>9.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F34" t="n">
-        <v>25.4</v>
+        <v>25</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2198,13 +2198,13 @@
         <v>1215.5</v>
       </c>
       <c r="C35" t="n">
-        <v>95.5</v>
+        <v>94.3</v>
       </c>
       <c r="D35" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="E35" t="n">
-        <v>98.3</v>
+        <v>98.5</v>
       </c>
       <c r="F35" t="n">
         <v>8.1</v>
@@ -2249,16 +2249,16 @@
         <v>236</v>
       </c>
       <c r="C36" t="n">
-        <v>32.8</v>
+        <v>33.5</v>
       </c>
       <c r="D36" t="n">
-        <v>13.9</v>
+        <v>14.2</v>
       </c>
       <c r="E36" t="n">
-        <v>30.5</v>
+        <v>29.9</v>
       </c>
       <c r="F36" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2303,13 +2303,13 @@
         <v>2.2</v>
       </c>
       <c r="D37" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E37" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="F37" t="n">
-        <v>64.5</v>
+        <v>59.8</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2351,16 +2351,16 @@
         <v>142.8</v>
       </c>
       <c r="C38" t="n">
-        <v>48.4</v>
+        <v>49</v>
       </c>
       <c r="D38" t="n">
-        <v>33.9</v>
+        <v>34.3</v>
       </c>
       <c r="E38" t="n">
-        <v>15.3</v>
+        <v>15.8</v>
       </c>
       <c r="F38" t="n">
-        <v>10.7</v>
+        <v>11.1</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2402,16 +2402,16 @@
         <v>1.4</v>
       </c>
       <c r="C39" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>83.5</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="F39" t="n">
-        <v>69</v>
+        <v>62.1</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2453,16 +2453,16 @@
         <v>668.2</v>
       </c>
       <c r="C40" t="n">
-        <v>63.7</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>9.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>64.5</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>9.699999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2504,16 +2504,16 @@
         <v>14.3</v>
       </c>
       <c r="C41" t="n">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="D41" t="n">
-        <v>67.40000000000001</v>
+        <v>59.9</v>
       </c>
       <c r="E41" t="n">
-        <v>10.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>71</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2555,16 +2555,16 @@
         <v>2657</v>
       </c>
       <c r="C42" t="n">
-        <v>59.9</v>
+        <v>54.6</v>
       </c>
       <c r="D42" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="E42" t="n">
-        <v>125.2</v>
+        <v>119.8</v>
       </c>
       <c r="F42" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2606,16 +2606,16 @@
         <v>9.4</v>
       </c>
       <c r="C43" t="n">
-        <v>4.6</v>
+        <v>0.8</v>
       </c>
       <c r="D43" t="n">
-        <v>49.2</v>
+        <v>8.6</v>
       </c>
       <c r="E43" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="F43" t="n">
-        <v>25.1</v>
+        <v>23.6</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2660,13 +2660,13 @@
         <v>2.9</v>
       </c>
       <c r="D44" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="E44" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="F44" t="n">
-        <v>50.1</v>
+        <v>47.8</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>1.1</v>
       </c>
       <c r="D45" t="n">
-        <v>98.7</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E45" t="n">
         <v>1</v>
@@ -2762,13 +2762,13 @@
         <v>8.9</v>
       </c>
       <c r="D46" t="n">
-        <v>57.8</v>
+        <v>57.6</v>
       </c>
       <c r="E46" t="n">
         <v>7.1</v>
       </c>
       <c r="F46" t="n">
-        <v>46.3</v>
+        <v>46.1</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2810,16 +2810,16 @@
         <v>69.34</v>
       </c>
       <c r="C47" t="n">
-        <v>35.62</v>
+        <v>37.25</v>
       </c>
       <c r="D47" t="n">
-        <v>51.4</v>
+        <v>53.7</v>
       </c>
       <c r="E47" t="n">
         <v>21.3</v>
       </c>
       <c r="F47" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2861,16 +2861,16 @@
         <v>24.8</v>
       </c>
       <c r="C48" t="n">
-        <v>18.1</v>
+        <v>18.3</v>
       </c>
       <c r="D48" t="n">
-        <v>73</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="E48" t="n">
         <v>15.3</v>
       </c>
       <c r="F48" t="n">
-        <v>61.6</v>
+        <v>61.4</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2912,16 +2912,16 @@
         <v>53.3</v>
       </c>
       <c r="C49" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="D49" t="n">
-        <v>22</v>
+        <v>21.2</v>
       </c>
       <c r="E49" t="n">
-        <v>11.5</v>
+        <v>11.1</v>
       </c>
       <c r="F49" t="n">
-        <v>21.6</v>
+        <v>20.7</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2965,16 +2965,16 @@
         <v>64.40000000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="D50" t="n">
-        <v>37.9</v>
+        <v>37.7</v>
       </c>
       <c r="E50" t="n">
-        <v>32.1</v>
+        <v>31.8</v>
       </c>
       <c r="F50" t="n">
-        <v>49.8</v>
+        <v>49.4</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -3019,13 +3019,13 @@
         <v>0.1</v>
       </c>
       <c r="D51" t="n">
-        <v>61.8</v>
+        <v>64.2</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -3067,16 +3067,16 @@
         <v>90.59999999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="D52" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="E52" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="F52" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -3118,16 +3118,16 @@
         <v>89</v>
       </c>
       <c r="C53" t="n">
-        <v>20.7</v>
+        <v>20.1</v>
       </c>
       <c r="D53" t="n">
-        <v>23.3</v>
+        <v>22.5</v>
       </c>
       <c r="E53" t="n">
-        <v>16.8</v>
+        <v>16.1</v>
       </c>
       <c r="F53" t="n">
-        <v>18.9</v>
+        <v>18.1</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -3169,13 +3169,13 @@
         <v>198.4</v>
       </c>
       <c r="C54" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="D54" t="n">
         <v>5.7</v>
       </c>
       <c r="E54" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="F54" t="n">
         <v>2.4</v>
@@ -3220,16 +3220,16 @@
         <v>39.8</v>
       </c>
       <c r="C55" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="D55" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="E55" t="n">
-        <v>9.699999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="F55" t="n">
-        <v>24.4</v>
+        <v>25.4</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3277,10 +3277,10 @@
         <v>36.4</v>
       </c>
       <c r="E56" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="F56" t="n">
-        <v>38.5</v>
+        <v>38.3</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3322,16 +3322,16 @@
         <v>4.7</v>
       </c>
       <c r="C57" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="D57" t="n">
-        <v>37.6</v>
+        <v>37.2</v>
       </c>
       <c r="E57" t="n">
         <v>2.6</v>
       </c>
       <c r="F57" t="n">
-        <v>56</v>
+        <v>55.5</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3373,16 +3373,16 @@
         <v>298.9</v>
       </c>
       <c r="C58" t="n">
-        <v>32.8</v>
+        <v>32.5</v>
       </c>
       <c r="D58" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="E58" t="n">
-        <v>38.6</v>
+        <v>38.2</v>
       </c>
       <c r="F58" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3424,16 +3424,16 @@
         <v>445.3</v>
       </c>
       <c r="C59" t="n">
-        <v>62.8</v>
+        <v>62.6</v>
       </c>
       <c r="D59" t="n">
         <v>14.1</v>
       </c>
       <c r="E59" t="n">
-        <v>56.2</v>
+        <v>58.1</v>
       </c>
       <c r="F59" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3475,16 +3475,16 @@
         <v>280.2</v>
       </c>
       <c r="C60" t="n">
-        <v>91.8</v>
+        <v>91.5</v>
       </c>
       <c r="D60" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="E60" t="n">
-        <v>74.8</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="F60" t="n">
-        <v>26.7</v>
+        <v>24.8</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3526,16 +3526,16 @@
         <v>312.8</v>
       </c>
       <c r="C61" t="n">
-        <v>87.90000000000001</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="E61" t="n">
-        <v>70.40000000000001</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="F61" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
